--- a/Rabbit/Position_Related_Plots/Rabbit_Vitreous_Humor_Results_Top_Vitreous.xlsx
+++ b/Rabbit/Position_Related_Plots/Rabbit_Vitreous_Humor_Results_Top_Vitreous.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Github for Jabias project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Github Jabias project/Rabbit/Position_Related_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="13_ncr:1_{AAA157FD-7270-42C0-8DC4-393A105BA25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C6D2311-D308-4388-863D-9B35583190D8}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{AAA157FD-7270-42C0-8DC4-393A105BA25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71CC44E8-A20B-4FDD-9910-0732CB642CEE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="1" xr2:uid="{26FFA8E2-5374-4B2B-9A88-9D55D5004369}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{26FFA8E2-5374-4B2B-9A88-9D55D5004369}"/>
   </bookViews>
   <sheets>
     <sheet name="Vitreous concentrations" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="19">
   <si>
     <t>Experimental data</t>
   </si>
@@ -89,6 +89,12 @@
   <si>
     <t>Reported</t>
   </si>
+  <si>
+    <t>stdv</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
 </sst>
 </file>
 
@@ -135,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -149,7 +155,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -168,9 +173,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -208,7 +213,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -314,7 +319,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -456,7 +461,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -466,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596589CB-4D4B-4B0D-B9B7-0073155E1CCB}">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,6 +492,9 @@
         <v>8</v>
       </c>
       <c r="B3" s="5"/>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
       <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
@@ -511,6 +519,9 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
@@ -543,6 +554,9 @@
       <c r="B5">
         <v>414.93257202146998</v>
       </c>
+      <c r="C5">
+        <v>80.180000000000007</v>
+      </c>
       <c r="D5">
         <v>0</v>
       </c>
@@ -575,6 +589,9 @@
       <c r="B6">
         <v>328.74104593189298</v>
       </c>
+      <c r="C6">
+        <v>44.86</v>
+      </c>
       <c r="D6">
         <v>0.5</v>
       </c>
@@ -607,6 +624,9 @@
       <c r="B7">
         <v>129.52677443553199</v>
       </c>
+      <c r="C7">
+        <v>25.43</v>
+      </c>
       <c r="D7">
         <v>1</v>
       </c>
@@ -639,6 +659,9 @@
       <c r="B8">
         <v>48.461098954332002</v>
       </c>
+      <c r="C8">
+        <v>4.91</v>
+      </c>
       <c r="D8">
         <v>1.5</v>
       </c>
@@ -671,6 +694,9 @@
       <c r="B9">
         <v>4.6017322765137996</v>
       </c>
+      <c r="C9">
+        <v>0.52</v>
+      </c>
       <c r="D9">
         <v>2</v>
       </c>
@@ -753,6 +779,9 @@
         <v>9</v>
       </c>
       <c r="B12" s="5"/>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
       <c r="D12">
         <v>3.5</v>
       </c>
@@ -785,6 +814,9 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
       <c r="D13">
         <v>4</v>
       </c>
@@ -817,6 +849,9 @@
       <c r="B14">
         <v>517.94746792312196</v>
       </c>
+      <c r="C14">
+        <v>160.13</v>
+      </c>
       <c r="D14">
         <v>4.5</v>
       </c>
@@ -849,6 +884,9 @@
       <c r="B15">
         <v>89.615050194660597</v>
       </c>
+      <c r="C15">
+        <v>13.51</v>
+      </c>
       <c r="D15">
         <v>5</v>
       </c>
@@ -881,6 +919,9 @@
       <c r="B16">
         <v>57.796928841533195</v>
       </c>
+      <c r="C16">
+        <v>11.11</v>
+      </c>
       <c r="D16">
         <v>5.5</v>
       </c>
@@ -913,6 +954,9 @@
       <c r="B17">
         <v>26.826957952797198</v>
       </c>
+      <c r="C17">
+        <v>9.11</v>
+      </c>
       <c r="D17">
         <v>6</v>
       </c>
@@ -945,6 +989,9 @@
       <c r="B18">
         <v>5.9948425031894104</v>
       </c>
+      <c r="C18">
+        <v>1.56</v>
+      </c>
       <c r="D18">
         <v>6.5</v>
       </c>
@@ -1053,6 +1100,9 @@
         <v>10</v>
       </c>
       <c r="B22" s="5"/>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
       <c r="D22">
         <v>8.5</v>
       </c>
@@ -1085,6 +1135,9 @@
       <c r="B23" t="s">
         <v>6</v>
       </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
       <c r="D23">
         <v>9</v>
       </c>
@@ -1117,6 +1170,9 @@
       <c r="B24">
         <v>59.2</v>
       </c>
+      <c r="C24">
+        <v>12.24</v>
+      </c>
       <c r="D24">
         <v>9.5</v>
       </c>
@@ -1149,6 +1205,9 @@
       <c r="B25">
         <v>4.7469999999999999</v>
       </c>
+      <c r="C25">
+        <v>0.66</v>
+      </c>
       <c r="D25">
         <v>10</v>
       </c>
@@ -1181,6 +1240,9 @@
       <c r="B26">
         <v>3.5</v>
       </c>
+      <c r="C26">
+        <v>0.84</v>
+      </c>
       <c r="D26">
         <v>10.5</v>
       </c>
@@ -1263,6 +1325,9 @@
         <v>11</v>
       </c>
       <c r="B29" s="5"/>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
       <c r="D29">
         <v>12</v>
       </c>
@@ -1295,6 +1360,9 @@
       <c r="B30" t="s">
         <v>6</v>
       </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
       <c r="D30">
         <v>12.5</v>
       </c>
@@ -1327,6 +1395,9 @@
       <c r="B31">
         <v>156</v>
       </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
       <c r="D31">
         <v>13</v>
       </c>
@@ -1359,6 +1430,9 @@
       <c r="B32">
         <v>87.3333333333333</v>
       </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
       <c r="D32">
         <v>13.5</v>
       </c>
@@ -1391,6 +1465,9 @@
       <c r="B33">
         <v>30</v>
       </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
       <c r="D33">
         <v>14</v>
       </c>
@@ -1423,6 +1500,9 @@
       <c r="B34">
         <v>19.1404115825896</v>
       </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
       <c r="D34">
         <v>14.5</v>
       </c>
@@ -1455,6 +1535,9 @@
       <c r="B35">
         <v>2.4221453287196901</v>
       </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
       <c r="D35">
         <v>15</v>
       </c>
@@ -1537,6 +1620,9 @@
         <v>7</v>
       </c>
       <c r="B38" s="5"/>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
       <c r="D38">
         <v>16.5</v>
       </c>
@@ -1569,6 +1655,9 @@
       <c r="B39" t="s">
         <v>6</v>
       </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
       <c r="D39">
         <v>17</v>
       </c>
@@ -1601,6 +1690,9 @@
       <c r="B40">
         <v>1471.7436403597401</v>
       </c>
+      <c r="C40">
+        <v>79.8</v>
+      </c>
       <c r="D40">
         <v>17.5</v>
       </c>
@@ -1633,6 +1725,9 @@
       <c r="B41">
         <v>679.46616012253696</v>
       </c>
+      <c r="C41">
+        <v>41.36</v>
+      </c>
       <c r="D41">
         <v>18</v>
       </c>
@@ -1665,6 +1760,9 @@
       <c r="B42">
         <v>334.56116246598299</v>
       </c>
+      <c r="C42">
+        <v>37.07</v>
+      </c>
       <c r="D42">
         <v>18.5</v>
       </c>
@@ -1697,6 +1795,9 @@
       <c r="B43">
         <v>127.31955290816499</v>
       </c>
+      <c r="C43">
+        <v>18.670000000000002</v>
+      </c>
       <c r="D43">
         <v>19</v>
       </c>
@@ -1729,6 +1830,9 @@
       <c r="B44">
         <v>32.3958597771421</v>
       </c>
+      <c r="C44">
+        <v>5.58</v>
+      </c>
       <c r="D44">
         <v>19.5</v>
       </c>
@@ -2622,16 +2726,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2641,7 +2745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DD368D-0B3B-4024-960C-A6EC5ACA0293}">
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -3144,7 +3248,6 @@
       <c r="I18">
         <v>72.644576713602135</v>
       </c>
-      <c r="J18" s="7"/>
       <c r="L18">
         <v>1.3</v>
       </c>
@@ -4885,16 +4988,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Rabbit/Position_Related_Plots/Rabbit_Vitreous_Humor_Results_Top_Vitreous.xlsx
+++ b/Rabbit/Position_Related_Plots/Rabbit_Vitreous_Humor_Results_Top_Vitreous.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Github Jabias project/Rabbit/Position_Related_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{AAA157FD-7270-42C0-8DC4-393A105BA25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71CC44E8-A20B-4FDD-9910-0732CB642CEE}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="13_ncr:1_{AAA157FD-7270-42C0-8DC4-393A105BA25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB85360E-C8FF-408E-ACB6-4BF21E189E42}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{26FFA8E2-5374-4B2B-9A88-9D55D5004369}"/>
   </bookViews>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596589CB-4D4B-4B0D-B9B7-0073155E1CCB}">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C71"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="O77" sqref="O77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2665,63 +2665,293 @@
       </c>
     </row>
     <row r="76" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="N76" s="1"/>
+      <c r="D76">
+        <v>35.5</v>
+      </c>
+      <c r="E76">
+        <v>6.8731670460056094E-3</v>
+      </c>
+      <c r="G76">
+        <v>35.5</v>
+      </c>
+      <c r="H76">
+        <v>-1.7379174118295368E-18</v>
+      </c>
+      <c r="J76">
+        <v>35.5</v>
+      </c>
+      <c r="K76">
+        <v>0.37157163977050511</v>
+      </c>
+      <c r="M76">
+        <v>35.5</v>
+      </c>
+      <c r="N76">
+        <v>4.4672981339614626E-20</v>
+      </c>
     </row>
     <row r="77" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="N77" s="1"/>
+      <c r="D77">
+        <v>36</v>
+      </c>
+      <c r="E77">
+        <v>5.8380191772853564E-3</v>
+      </c>
+      <c r="G77">
+        <v>36</v>
+      </c>
+      <c r="H77" s="1">
+        <v>-1.2876740794269404E-18</v>
+      </c>
+      <c r="J77">
+        <v>36</v>
+      </c>
+      <c r="K77">
+        <v>0.33381807205061337</v>
+      </c>
+      <c r="M77">
+        <v>36</v>
+      </c>
+      <c r="N77">
+        <v>4.6415084049565109E-19</v>
+      </c>
     </row>
     <row r="78" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="N78" s="1"/>
+      <c r="D78">
+        <v>36.5</v>
+      </c>
+      <c r="E78">
+        <v>4.958950100534416E-3</v>
+      </c>
+      <c r="G78">
+        <v>36.5</v>
+      </c>
+      <c r="H78" s="1">
+        <v>-8.3743074702433961E-19</v>
+      </c>
+      <c r="J78">
+        <v>36.5</v>
+      </c>
+      <c r="K78">
+        <v>0.29988127021891936</v>
+      </c>
+      <c r="M78">
+        <v>36.5</v>
+      </c>
+      <c r="N78">
+        <v>8.8362869965168351E-19</v>
+      </c>
     </row>
     <row r="79" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="N79" s="1"/>
+      <c r="D79">
+        <v>37</v>
+      </c>
+      <c r="E79">
+        <v>4.211509203511485E-3</v>
+      </c>
+      <c r="G79">
+        <v>37</v>
+      </c>
+      <c r="H79" s="1">
+        <v>-3.8718741462174007E-19</v>
+      </c>
+      <c r="J79">
+        <v>37</v>
+      </c>
+      <c r="K79">
+        <v>0.26954406917794976</v>
+      </c>
+      <c r="M79">
+        <v>37</v>
+      </c>
+      <c r="N79">
+        <v>1.3031065588077132E-18</v>
+      </c>
     </row>
     <row r="80" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="N80" s="1"/>
-    </row>
-    <row r="81" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N81" s="1"/>
-    </row>
-    <row r="82" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N82" s="1"/>
-    </row>
-    <row r="83" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N83" s="1"/>
-    </row>
-    <row r="84" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N84" s="1"/>
-    </row>
-    <row r="85" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N85" s="1"/>
-    </row>
-    <row r="86" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>37.5</v>
+      </c>
+      <c r="E80">
+        <v>3.5767807901139282E-3</v>
+      </c>
+      <c r="G80">
+        <v>37.5</v>
+      </c>
+      <c r="H80" s="1">
+        <v>6.3055917780859481E-20</v>
+      </c>
+      <c r="J80">
+        <v>37.5</v>
+      </c>
+      <c r="K80">
+        <v>0.24208066339337925</v>
+      </c>
+      <c r="M80">
+        <v>37.5</v>
+      </c>
+      <c r="N80">
+        <v>1.3328830145761133E-18</v>
+      </c>
+    </row>
+    <row r="81" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>38</v>
+      </c>
+      <c r="E81">
+        <v>3.0378099972448698E-3</v>
+      </c>
+      <c r="G81">
+        <v>38</v>
+      </c>
+      <c r="H81" s="1">
+        <v>5.1329925018346175E-19</v>
+      </c>
+      <c r="J81">
+        <v>38</v>
+      </c>
+      <c r="K81">
+        <v>0.21752395504947969</v>
+      </c>
+      <c r="M81">
+        <v>38</v>
+      </c>
+      <c r="N81">
+        <v>1.2970933419073979E-18</v>
+      </c>
+    </row>
+    <row r="82" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>38.5</v>
+      </c>
+      <c r="E82">
+        <v>2.5801816316277015E-3</v>
+      </c>
+      <c r="G82">
+        <v>38.5</v>
+      </c>
+      <c r="H82" s="1">
+        <v>9.6354258258605961E-19</v>
+      </c>
+      <c r="J82">
+        <v>38.5</v>
+      </c>
+      <c r="K82">
+        <v>0.19543939691194287</v>
+      </c>
+      <c r="M82">
+        <v>38.5</v>
+      </c>
+      <c r="N82">
+        <v>1.2613036692386736E-18</v>
+      </c>
+    </row>
+    <row r="83" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>39</v>
+      </c>
+      <c r="E83">
+        <v>2.1916417236494475E-3</v>
+      </c>
+      <c r="G83">
+        <v>39</v>
+      </c>
+      <c r="H83" s="1">
+        <v>1.4137859149886592E-18</v>
+      </c>
+      <c r="J83">
+        <v>39</v>
+      </c>
+      <c r="K83">
+        <v>0.17558488919717716</v>
+      </c>
+      <c r="M83">
+        <v>39</v>
+      </c>
+      <c r="N83">
+        <v>1.2255139965699537E-18</v>
+      </c>
+    </row>
+    <row r="84" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>39.5</v>
+      </c>
+      <c r="E84">
+        <v>1.8615139039231355E-3</v>
+      </c>
+      <c r="G84">
+        <v>39.5</v>
+      </c>
+      <c r="H84" s="1">
+        <v>1.7868517043640008E-18</v>
+      </c>
+      <c r="J84">
+        <v>39.5</v>
+      </c>
+      <c r="K84">
+        <v>0.157795073947047</v>
+      </c>
+      <c r="M84">
+        <v>39.5</v>
+      </c>
+      <c r="N84">
+        <v>1.1897243239012338E-18</v>
+      </c>
+    </row>
+    <row r="85" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>40</v>
+      </c>
+      <c r="E85">
+        <v>1.580941114780631E-3</v>
+      </c>
+      <c r="G85">
+        <v>40</v>
+      </c>
+      <c r="H85" s="1">
+        <v>1.718755143525913E-18</v>
+      </c>
+      <c r="J85">
+        <v>40</v>
+      </c>
+      <c r="K85">
+        <v>0.14172361751209875</v>
+      </c>
+      <c r="M85">
+        <v>40</v>
+      </c>
+      <c r="N85">
+        <v>1.1539346512325141E-18</v>
+      </c>
+    </row>
+    <row r="86" spans="4:14" x14ac:dyDescent="0.25">
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:14" x14ac:dyDescent="0.25">
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:14" x14ac:dyDescent="0.25">
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:14" x14ac:dyDescent="0.25">
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:14" x14ac:dyDescent="0.25">
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:14" x14ac:dyDescent="0.25">
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:14" x14ac:dyDescent="0.25">
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:14" x14ac:dyDescent="0.25">
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:14" x14ac:dyDescent="0.25">
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:14" x14ac:dyDescent="0.25">
       <c r="N95" s="1"/>
     </row>
   </sheetData>
@@ -2745,7 +2975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DD368D-0B3B-4024-960C-A6EC5ACA0293}">
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
